--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_List_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_List_A1_Project_Management_System.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8AE982-E1B0-4EBC-91C9-DD67B854FE38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD8CE3-8D5D-4D08-ACF2-E341597D36BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="538" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21795" windowHeight="8805" tabRatio="538" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="29" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="30" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="31" r:id="rId3"/>
+    <sheet name="Contents" sheetId="31" r:id="rId3"/>
     <sheet name="1" sheetId="28" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1'!$A$9:$U$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$BH$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -143,9 +145,6 @@
     <t>TIS</t>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>1. External interface list</t>
   </si>
   <si>
@@ -237,6 +236,10 @@
   </si>
   <si>
     <t>Destination</t>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1393,6 +1396,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1411,15 +1531,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1447,132 +1558,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1600,15 +1621,6 @@
     <xf numFmtId="0" fontId="36" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1636,14 +1648,71 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1654,16 +1723,19 @@
     <xf numFmtId="0" fontId="35" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="35" fillId="0" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="35" fillId="0" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="35" fillId="0" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="35" fillId="0" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,75 +1755,6 @@
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="35" fillId="0" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="35" fillId="0" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="35" fillId="0" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="35" fillId="0" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1850,8 +1853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7924800" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7972425" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3146,56 +3149,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="116" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="134" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="143" t="s">
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="131" t="s">
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="107" t="str">
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="110" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="101">
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="140">
         <v>43578</v>
       </c>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="103"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="16"/>
       <c r="AK1" s="16"/>
       <c r="AL1" s="16"/>
@@ -3203,53 +3206,53 @@
       <c r="AN1" s="17"/>
     </row>
     <row r="2" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="116" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="131" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="104" t="str">
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="101" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="140" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="103"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="16"/>
       <c r="AK2" s="16"/>
       <c r="AL2" s="16"/>
@@ -3257,45 +3260,45 @@
       <c r="AN2" s="16"/>
     </row>
     <row r="3" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="116" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="103"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="142"/>
       <c r="AJ3" s="16"/>
       <c r="AK3" s="16"/>
       <c r="AL3" s="16"/>
@@ -3332,114 +3335,114 @@
       <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="109"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="122" t="s">
+      <c r="H7" s="109"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="109"/>
+      <c r="AI7" s="108"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127">
+      <c r="C8" s="114"/>
+      <c r="D8" s="115">
         <v>43578</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="125" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="110" t="s">
+      <c r="H8" s="118"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113" t="s">
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="110" t="s">
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="112"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="148"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="95"/>
       <c r="K9" s="96"/>
       <c r="L9" s="96"/>
@@ -3470,14 +3473,14 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="95"/>
       <c r="K10" s="96"/>
       <c r="L10" s="96"/>
@@ -3507,14 +3510,14 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="95"/>
       <c r="K11" s="96"/>
       <c r="L11" s="96"/>
@@ -3544,14 +3547,14 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="95"/>
       <c r="K12" s="96"/>
       <c r="L12" s="96"/>
@@ -3581,14 +3584,14 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="95"/>
       <c r="K13" s="96"/>
       <c r="L13" s="96"/>
@@ -3618,14 +3621,14 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="95"/>
       <c r="K14" s="96"/>
       <c r="L14" s="96"/>
@@ -3655,14 +3658,14 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="95"/>
       <c r="K15" s="96"/>
       <c r="L15" s="96"/>
@@ -3692,14 +3695,14 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="95"/>
       <c r="K16" s="96"/>
       <c r="L16" s="96"/>
@@ -3729,14 +3732,14 @@
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="102"/>
       <c r="J17" s="95"/>
       <c r="K17" s="96"/>
       <c r="L17" s="96"/>
@@ -3766,14 +3769,14 @@
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="102"/>
       <c r="J18" s="95"/>
       <c r="K18" s="96"/>
       <c r="L18" s="96"/>
@@ -3803,14 +3806,14 @@
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="102"/>
       <c r="J19" s="95"/>
       <c r="K19" s="96"/>
       <c r="L19" s="96"/>
@@ -3840,14 +3843,14 @@
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="102"/>
       <c r="J20" s="95"/>
       <c r="K20" s="96"/>
       <c r="L20" s="96"/>
@@ -3877,14 +3880,14 @@
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="102"/>
       <c r="J21" s="95"/>
       <c r="K21" s="96"/>
       <c r="L21" s="96"/>
@@ -3914,14 +3917,14 @@
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="102"/>
       <c r="J22" s="95"/>
       <c r="K22" s="96"/>
       <c r="L22" s="96"/>
@@ -3951,14 +3954,14 @@
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="102"/>
       <c r="J23" s="95"/>
       <c r="K23" s="96"/>
       <c r="L23" s="96"/>
@@ -3988,14 +3991,14 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="95"/>
       <c r="K24" s="96"/>
       <c r="L24" s="96"/>
@@ -4025,14 +4028,14 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="121"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="102"/>
       <c r="J25" s="95"/>
       <c r="K25" s="96"/>
       <c r="L25" s="96"/>
@@ -4062,14 +4065,14 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="121"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="102"/>
       <c r="J26" s="95"/>
       <c r="K26" s="96"/>
       <c r="L26" s="96"/>
@@ -4099,14 +4102,14 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="102"/>
       <c r="J27" s="95"/>
       <c r="K27" s="96"/>
       <c r="L27" s="96"/>
@@ -4136,14 +4139,14 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="102"/>
       <c r="J28" s="95"/>
       <c r="K28" s="96"/>
       <c r="L28" s="96"/>
@@ -4173,14 +4176,14 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="121"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="102"/>
       <c r="J29" s="95"/>
       <c r="K29" s="96"/>
       <c r="L29" s="96"/>
@@ -4210,14 +4213,14 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="102"/>
       <c r="J30" s="95"/>
       <c r="K30" s="96"/>
       <c r="L30" s="96"/>
@@ -4247,14 +4250,14 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="102"/>
       <c r="J31" s="95"/>
       <c r="K31" s="96"/>
       <c r="L31" s="96"/>
@@ -4285,14 +4288,14 @@
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="121"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="102"/>
       <c r="J32" s="95"/>
       <c r="K32" s="96"/>
       <c r="L32" s="96"/>
@@ -4323,14 +4326,14 @@
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="102"/>
       <c r="J33" s="95"/>
       <c r="K33" s="96"/>
       <c r="L33" s="96"/>
@@ -4551,6 +4554,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="J27:P27"/>
     <mergeCell ref="Q27:AE27"/>
     <mergeCell ref="AF27:AI27"/>
@@ -4575,161 +4733,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4885,12 +4888,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="162"/>
       <c r="E1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -4904,48 +4907,48 @@
       <c r="L1" s="159"/>
       <c r="M1" s="159"/>
       <c r="N1" s="160"/>
-      <c r="O1" s="161" t="s">
+      <c r="O1" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="173" t="str">
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース一覧</v>
       </c>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="155" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="162"/>
       <c r="E2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -4959,43 +4962,43 @@
       <c r="L2" s="159"/>
       <c r="M2" s="159"/>
       <c r="N2" s="160"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="155" t="s">
+      <c r="O2" s="170"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
     </row>
     <row r="3" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="162"/>
       <c r="E3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -5009,33 +5012,33 @@
       <c r="L3" s="159"/>
       <c r="M3" s="159"/>
       <c r="N3" s="160"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="170" t="str">
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
     </row>
     <row r="4" spans="1:35" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
@@ -5092,7 +5095,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="35" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
@@ -5153,7 +5156,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -6495,12 +6498,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6512,6 +6509,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6544,12 +6547,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="162"/>
       <c r="E1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -6563,51 +6566,51 @@
       <c r="L1" s="159"/>
       <c r="M1" s="159"/>
       <c r="N1" s="160"/>
-      <c r="O1" s="161" t="s">
+      <c r="O1" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="173" t="str">
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース一覧</v>
       </c>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="155" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="192">
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="215">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="194"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="217"/>
       <c r="AJ1" s="75"/>
       <c r="AK1" s="76"/>
       <c r="AL1" s="77"/>
     </row>
     <row r="2" spans="1:62" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="162"/>
       <c r="E2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -6621,46 +6624,46 @@
       <c r="L2" s="159"/>
       <c r="M2" s="159"/>
       <c r="N2" s="160"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="155" t="s">
+      <c r="O2" s="170"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="192" t="str">
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="194"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
       <c r="AJ2" s="75"/>
       <c r="AK2" s="76"/>
       <c r="AL2" s="76"/>
     </row>
     <row r="3" spans="1:62" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="162"/>
       <c r="E3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -6674,40 +6677,40 @@
       <c r="L3" s="159"/>
       <c r="M3" s="159"/>
       <c r="N3" s="160"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="170" t="str">
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="192" t="str">
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="194"/>
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="217"/>
       <c r="AJ3" s="75"/>
       <c r="AK3" s="76"/>
       <c r="AL3" s="76"/>
     </row>
     <row r="5" spans="1:62" s="78" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
@@ -6733,258 +6736,290 @@
       <c r="BJ7" s="84"/>
     </row>
     <row r="8" spans="1:62" s="86" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="212" t="s">
+      <c r="G8" s="206"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="204" t="s">
+      <c r="N8" s="196"/>
+      <c r="O8" s="188" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="189"/>
+      <c r="R8" s="189"/>
+      <c r="S8" s="190"/>
+      <c r="T8" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="206"/>
-      <c r="O8" s="215" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="216"/>
-      <c r="Q8" s="216"/>
-      <c r="R8" s="216"/>
-      <c r="S8" s="217"/>
-      <c r="T8" s="188" t="s">
+      <c r="U8" s="187"/>
+      <c r="V8" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="188"/>
-      <c r="V8" s="204" t="s">
+      <c r="W8" s="199"/>
+      <c r="X8" s="199"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="205"/>
-      <c r="X8" s="205"/>
-      <c r="Y8" s="206"/>
-      <c r="Z8" s="188" t="s">
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="215" t="s">
+      <c r="AC8" s="189"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="AC8" s="216"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="185" t="s">
+      <c r="AF8" s="208"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="208"/>
+      <c r="AJ8" s="208"/>
+      <c r="AK8" s="208"/>
+      <c r="AL8" s="208"/>
+      <c r="AM8" s="209"/>
+      <c r="AN8" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="186"/>
-      <c r="AG8" s="186"/>
-      <c r="AH8" s="186"/>
-      <c r="AI8" s="186"/>
-      <c r="AJ8" s="186"/>
-      <c r="AK8" s="186"/>
-      <c r="AL8" s="186"/>
-      <c r="AM8" s="187"/>
-      <c r="AN8" s="188" t="s">
+      <c r="AO8" s="187"/>
+      <c r="AP8" s="187"/>
+      <c r="AQ8" s="187"/>
+      <c r="AR8" s="187"/>
+      <c r="AS8" s="187"/>
+      <c r="AT8" s="187"/>
+      <c r="AU8" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="AO8" s="188"/>
-      <c r="AP8" s="188"/>
-      <c r="AQ8" s="188"/>
-      <c r="AR8" s="188"/>
-      <c r="AS8" s="188"/>
-      <c r="AT8" s="188"/>
-      <c r="AU8" s="188" t="s">
+      <c r="AV8" s="187"/>
+      <c r="AW8" s="187"/>
+      <c r="AX8" s="187"/>
+      <c r="AY8" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="AV8" s="188"/>
-      <c r="AW8" s="188"/>
-      <c r="AX8" s="188"/>
-      <c r="AY8" s="188" t="s">
+      <c r="AZ8" s="187"/>
+      <c r="BA8" s="187"/>
+      <c r="BB8" s="187"/>
+      <c r="BC8" s="187"/>
+      <c r="BD8" s="187"/>
+      <c r="BE8" s="187"/>
+      <c r="BF8" s="187"/>
+      <c r="BG8" s="187"/>
+      <c r="BH8" s="87"/>
+    </row>
+    <row r="9" spans="1:62" s="86" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="186"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="206"/>
+      <c r="L9" s="206"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="192"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="187"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="200"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="191"/>
+      <c r="AC9" s="192"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="AZ8" s="188"/>
-      <c r="BA8" s="188"/>
-      <c r="BB8" s="188"/>
-      <c r="BC8" s="188"/>
-      <c r="BD8" s="188"/>
-      <c r="BE8" s="188"/>
-      <c r="BF8" s="188"/>
-      <c r="BG8" s="188"/>
-      <c r="BH8" s="87"/>
-    </row>
-    <row r="9" spans="1:62" s="86" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="214"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="212"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="219"/>
-      <c r="Q9" s="219"/>
-      <c r="R9" s="219"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="188"/>
-      <c r="V9" s="207"/>
-      <c r="W9" s="208"/>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="209"/>
-      <c r="Z9" s="188"/>
-      <c r="AA9" s="188"/>
-      <c r="AB9" s="218"/>
-      <c r="AC9" s="219"/>
-      <c r="AD9" s="220"/>
-      <c r="AE9" s="185" t="s">
+      <c r="AF9" s="208"/>
+      <c r="AG9" s="209"/>
+      <c r="AH9" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="188" t="s">
+      <c r="AI9" s="187"/>
+      <c r="AJ9" s="187"/>
+      <c r="AK9" s="187"/>
+      <c r="AL9" s="187"/>
+      <c r="AM9" s="187"/>
+      <c r="AN9" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="AI9" s="188"/>
-      <c r="AJ9" s="188"/>
-      <c r="AK9" s="188"/>
-      <c r="AL9" s="188"/>
-      <c r="AM9" s="188"/>
-      <c r="AN9" s="185" t="s">
+      <c r="AO9" s="208"/>
+      <c r="AP9" s="209"/>
+      <c r="AQ9" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="AO9" s="186"/>
-      <c r="AP9" s="187"/>
-      <c r="AQ9" s="188" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR9" s="188"/>
-      <c r="AS9" s="188"/>
-      <c r="AT9" s="188"/>
-      <c r="AU9" s="188"/>
-      <c r="AV9" s="188"/>
-      <c r="AW9" s="188"/>
-      <c r="AX9" s="188"/>
-      <c r="AY9" s="188"/>
-      <c r="AZ9" s="188"/>
-      <c r="BA9" s="188"/>
-      <c r="BB9" s="188"/>
-      <c r="BC9" s="188"/>
-      <c r="BD9" s="188"/>
-      <c r="BE9" s="188"/>
-      <c r="BF9" s="188"/>
-      <c r="BG9" s="188"/>
+      <c r="AR9" s="187"/>
+      <c r="AS9" s="187"/>
+      <c r="AT9" s="187"/>
+      <c r="AU9" s="187"/>
+      <c r="AV9" s="187"/>
+      <c r="AW9" s="187"/>
+      <c r="AX9" s="187"/>
+      <c r="AY9" s="187"/>
+      <c r="AZ9" s="187"/>
+      <c r="BA9" s="187"/>
+      <c r="BB9" s="187"/>
+      <c r="BC9" s="187"/>
+      <c r="BD9" s="187"/>
+      <c r="BE9" s="187"/>
+      <c r="BF9" s="187"/>
+      <c r="BG9" s="187"/>
       <c r="BH9" s="87"/>
     </row>
     <row r="10" spans="1:62" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="88">
         <v>1</v>
       </c>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="201" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="198" t="s">
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="189" t="s">
+      <c r="N10" s="203"/>
+      <c r="O10" s="202" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="203"/>
+      <c r="T10" s="205" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="205"/>
+      <c r="V10" s="202" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="203"/>
+      <c r="Z10" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="191"/>
-      <c r="O10" s="189" t="s">
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="202" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="203"/>
+      <c r="AE10" s="218" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="219"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="211" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="211"/>
-      <c r="V10" s="189" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="198" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA10" s="198"/>
-      <c r="AB10" s="189" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC10" s="190"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="195" t="s">
+      <c r="AI10" s="204"/>
+      <c r="AJ10" s="204"/>
+      <c r="AK10" s="204"/>
+      <c r="AL10" s="204"/>
+      <c r="AM10" s="203"/>
+      <c r="AN10" s="210">
+        <v>3572</v>
+      </c>
+      <c r="AO10" s="211"/>
+      <c r="AP10" s="212"/>
+      <c r="AQ10" s="213">
+        <v>1000</v>
+      </c>
+      <c r="AR10" s="213"/>
+      <c r="AS10" s="213"/>
+      <c r="AT10" s="213"/>
+      <c r="AU10" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AF10" s="196"/>
-      <c r="AG10" s="197"/>
-      <c r="AH10" s="189" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI10" s="190"/>
-      <c r="AJ10" s="190"/>
-      <c r="AK10" s="190"/>
-      <c r="AL10" s="190"/>
-      <c r="AM10" s="191"/>
-      <c r="AN10" s="199">
-        <v>3572</v>
-      </c>
-      <c r="AO10" s="200"/>
-      <c r="AP10" s="201"/>
-      <c r="AQ10" s="202">
-        <v>1000</v>
-      </c>
-      <c r="AR10" s="202"/>
-      <c r="AS10" s="202"/>
-      <c r="AT10" s="202"/>
-      <c r="AU10" s="203" t="s">
+      <c r="AV10" s="214"/>
+      <c r="AW10" s="214"/>
+      <c r="AX10" s="214"/>
+      <c r="AY10" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="AV10" s="203"/>
-      <c r="AW10" s="203"/>
-      <c r="AX10" s="203"/>
-      <c r="AY10" s="198" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ10" s="198"/>
-      <c r="BA10" s="198"/>
-      <c r="BB10" s="198"/>
-      <c r="BC10" s="198"/>
-      <c r="BD10" s="198"/>
-      <c r="BE10" s="198"/>
-      <c r="BF10" s="198"/>
-      <c r="BG10" s="198"/>
+      <c r="AZ10" s="194"/>
+      <c r="BA10" s="194"/>
+      <c r="BB10" s="194"/>
+      <c r="BC10" s="194"/>
+      <c r="BD10" s="194"/>
+      <c r="BE10" s="194"/>
+      <c r="BF10" s="194"/>
+      <c r="BG10" s="194"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="B13" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AY10:BG10"/>
+    <mergeCell ref="AY8:BG9"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="AQ9:AT9"/>
+    <mergeCell ref="AN8:AT8"/>
+    <mergeCell ref="AU8:AX9"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="AQ10:AT10"/>
+    <mergeCell ref="AU10:AX10"/>
+    <mergeCell ref="V8:Y9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="F8:L9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="Z8:AA9"/>
     <mergeCell ref="AB8:AD9"/>
@@ -7001,38 +7036,6 @@
     <mergeCell ref="T8:U9"/>
     <mergeCell ref="O8:S9"/>
     <mergeCell ref="M8:N9"/>
-    <mergeCell ref="V8:Y9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="F8:L9"/>
-    <mergeCell ref="AY10:BG10"/>
-    <mergeCell ref="AY8:BG9"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="AQ9:AT9"/>
-    <mergeCell ref="AN8:AT8"/>
-    <mergeCell ref="AU8:AX9"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="AQ10:AT10"/>
-    <mergeCell ref="AU10:AX10"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
